--- a/Apps/WebClient/src/Server/Assets/Templates/EncounterReport.xlsx
+++ b/Apps/WebClient/src/Server/Assets/Templates/EncounterReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\healthgateway\Apps\WebClient\src\Server\Assets\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laws/Projects/Health/healthgateway/Apps/WebClient/src/Server/Assets/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C83DC-4A37-4A45-8A16-79DA1F031398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31EBAEA-3433-EE45-BA83-15BD6420E807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F605F369-0C71-414E-B75C-5C18C8076E19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{F605F369-0C71-414E-B75C-5C18C8076E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,27 +115,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFAEAAAA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAEAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,21 +443,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60882D5E-E61D-5940-8D5B-09478E4A9588}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="35.83203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="30.875" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -484,8 +473,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -498,8 +487,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
